--- a/features.xlsx
+++ b/features.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="302">
   <si>
     <t>Feature</t>
   </si>
@@ -46,9 +46,15 @@
     <t>trc_count_5000</t>
   </si>
   <si>
+    <t>stadium_km</t>
+  </si>
+  <si>
     <t>railroad_station_avto_min</t>
   </si>
   <si>
+    <t>radiation_km</t>
+  </si>
+  <si>
     <t>public_transport_station_min_walk</t>
   </si>
   <si>
@@ -58,823 +64,820 @@
     <t>public_healthcare_km</t>
   </si>
   <si>
+    <t>power_transmission_line_km</t>
+  </si>
+  <si>
+    <t>park_km</t>
+  </si>
+  <si>
+    <t>office_sqm_5000</t>
+  </si>
+  <si>
+    <t>office_km</t>
+  </si>
+  <si>
     <t>nuclear_reactor_km</t>
   </si>
   <si>
+    <t>metro_min_walk</t>
+  </si>
+  <si>
+    <t>metro_min_avto</t>
+  </si>
+  <si>
+    <t>metro_km_walk</t>
+  </si>
+  <si>
+    <t>metro_km_avto</t>
+  </si>
+  <si>
     <t>kindergarten_km</t>
   </si>
   <si>
     <t>full_sq</t>
   </si>
   <si>
+    <t>fitness_km</t>
+  </si>
+  <si>
+    <t>exhibition_km</t>
+  </si>
+  <si>
     <t>catering_km</t>
   </si>
   <si>
+    <t>work_male</t>
+  </si>
+  <si>
+    <t>work_female</t>
+  </si>
+  <si>
     <t>university_km</t>
   </si>
   <si>
+    <t>ts_km</t>
+  </si>
+  <si>
     <t>trc_sqm_5000</t>
   </si>
   <si>
+    <t>trc_count_3000</t>
+  </si>
+  <si>
     <t>thermal_power_plant_km</t>
   </si>
   <si>
-    <t>stadium_km</t>
-  </si>
-  <si>
     <t>sport_count_2000</t>
   </si>
   <si>
-    <t>radiation_km</t>
+    <t>sport_count_1000</t>
+  </si>
+  <si>
+    <t>shopping_centers_km</t>
+  </si>
+  <si>
+    <t>school_km</t>
+  </si>
+  <si>
+    <t>school_education_centers_raion</t>
+  </si>
+  <si>
+    <t>sadovoe_km</t>
+  </si>
+  <si>
+    <t>railroad_station_avto_km</t>
   </si>
   <si>
     <t>product_type</t>
   </si>
   <si>
-    <t>power_transmission_line_km</t>
-  </si>
-  <si>
-    <t>park_km</t>
-  </si>
-  <si>
-    <t>office_sqm_5000</t>
-  </si>
-  <si>
-    <t>office_km</t>
+    <t>preschool_km</t>
+  </si>
+  <si>
+    <t>oil_chemistry_km</t>
+  </si>
+  <si>
+    <t>office_sqm_3000</t>
   </si>
   <si>
     <t>num_room</t>
   </si>
   <si>
+    <t>museum_km</t>
+  </si>
+  <si>
     <t>mosque_km</t>
   </si>
   <si>
-    <t>metro_min_walk</t>
-  </si>
-  <si>
-    <t>metro_min_avto</t>
-  </si>
-  <si>
-    <t>metro_km_walk</t>
-  </si>
-  <si>
-    <t>metro_km_avto</t>
-  </si>
-  <si>
     <t>kitch_sq</t>
   </si>
   <si>
-    <t>fitness_km</t>
-  </si>
-  <si>
-    <t>exhibition_km</t>
+    <t>hospice_morgue_km</t>
+  </si>
+  <si>
+    <t>green_part_5000</t>
   </si>
   <si>
     <t>church_synagogue_km</t>
   </si>
   <si>
+    <t>cafe_count_5000_price_4000</t>
+  </si>
+  <si>
+    <t>bulvar_ring_km</t>
+  </si>
+  <si>
+    <t>big_road2_km</t>
+  </si>
+  <si>
+    <t>big_church_km</t>
+  </si>
+  <si>
+    <t>basketball_km</t>
+  </si>
+  <si>
     <t>area_m</t>
   </si>
   <si>
+    <t>additional_education_km</t>
+  </si>
+  <si>
+    <t>0_6_male</t>
+  </si>
+  <si>
     <t>young_male</t>
   </si>
   <si>
-    <t>work_male</t>
-  </si>
-  <si>
-    <t>work_female</t>
-  </si>
-  <si>
     <t>ttk_km</t>
   </si>
   <si>
-    <t>ts_km</t>
-  </si>
-  <si>
     <t>trc_sqm_3000</t>
   </si>
   <si>
-    <t>trc_count_3000</t>
+    <t>trc_count_1500</t>
+  </si>
+  <si>
+    <t>theater_km</t>
+  </si>
+  <si>
+    <t>swim_pool_km</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>sport_objects_raion</t>
+  </si>
+  <si>
+    <t>sport_count_5000</t>
+  </si>
+  <si>
+    <t>sport_count_3000</t>
+  </si>
+  <si>
+    <t>railroad_km</t>
+  </si>
+  <si>
+    <t>prom_part_2000</t>
+  </si>
+  <si>
+    <t>prom_part_1500</t>
+  </si>
+  <si>
+    <t>mkad_km</t>
+  </si>
+  <si>
+    <t>max_floor</t>
+  </si>
+  <si>
+    <t>market_shop_km</t>
+  </si>
+  <si>
+    <t>market_count_5000</t>
+  </si>
+  <si>
+    <t>market_count_3000</t>
+  </si>
+  <si>
+    <t>kremlin_km</t>
+  </si>
+  <si>
+    <t>incineration_km</t>
+  </si>
+  <si>
+    <t>healthcare_centers_raion</t>
+  </si>
+  <si>
+    <t>green_zone_km</t>
+  </si>
+  <si>
+    <t>green_part_3000</t>
+  </si>
+  <si>
+    <t>green_part_2000</t>
+  </si>
+  <si>
+    <t>green_part_1500</t>
+  </si>
+  <si>
+    <t>floor</t>
+  </si>
+  <si>
+    <t>ekder_male</t>
+  </si>
+  <si>
+    <t>ekder_female</t>
+  </si>
+  <si>
+    <t>detention_facility_km</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>children_preschool</t>
+  </si>
+  <si>
+    <t>cemetery_km</t>
+  </si>
+  <si>
+    <t>cafe_sum_5000_min_price_avg</t>
+  </si>
+  <si>
+    <t>cafe_sum_2000_min_price_avg</t>
+  </si>
+  <si>
+    <t>cafe_sum_1500_min_price_avg</t>
+  </si>
+  <si>
+    <t>cafe_count_5000_price_high</t>
+  </si>
+  <si>
+    <t>cafe_count_5000_price_1000</t>
+  </si>
+  <si>
+    <t>cafe_count_3000_price_2500</t>
+  </si>
+  <si>
+    <t>big_market_km</t>
+  </si>
+  <si>
+    <t>7_14_female</t>
+  </si>
+  <si>
+    <t>0_17_all</t>
+  </si>
+  <si>
+    <t>0_13_male</t>
+  </si>
+  <si>
+    <t>young_female</t>
+  </si>
+  <si>
+    <t>young_all</t>
+  </si>
+  <si>
+    <t>work_all</t>
   </si>
   <si>
     <t>trc_count_2000</t>
   </si>
   <si>
-    <t>trc_count_1500</t>
-  </si>
-  <si>
-    <t>swim_pool_km</t>
-  </si>
-  <si>
-    <t>sport_objects_raion</t>
-  </si>
-  <si>
-    <t>sport_count_5000</t>
-  </si>
-  <si>
-    <t>sport_count_3000</t>
-  </si>
-  <si>
-    <t>sport_count_1000</t>
-  </si>
-  <si>
-    <t>shopping_centers_km</t>
-  </si>
-  <si>
-    <t>school_km</t>
-  </si>
-  <si>
-    <t>school_education_centers_raion</t>
-  </si>
-  <si>
-    <t>sadovoe_km</t>
-  </si>
-  <si>
-    <t>railroad_station_avto_km</t>
-  </si>
-  <si>
-    <t>preschool_km</t>
-  </si>
-  <si>
-    <t>oil_chemistry_km</t>
-  </si>
-  <si>
-    <t>museum_km</t>
-  </si>
-  <si>
-    <t>max_floor</t>
-  </si>
-  <si>
-    <t>market_count_5000</t>
-  </si>
-  <si>
-    <t>market_count_3000</t>
-  </si>
-  <si>
-    <t>incineration_km</t>
-  </si>
-  <si>
-    <t>hospice_morgue_km</t>
-  </si>
-  <si>
-    <t>healthcare_centers_raion</t>
-  </si>
-  <si>
-    <t>green_part_5000</t>
-  </si>
-  <si>
-    <t>green_part_3000</t>
-  </si>
-  <si>
-    <t>floor</t>
-  </si>
-  <si>
-    <t>ekder_male</t>
-  </si>
-  <si>
-    <t>ekder_female</t>
-  </si>
-  <si>
-    <t>detention_facility_km</t>
-  </si>
-  <si>
-    <t>cafe_count_5000_price_high</t>
-  </si>
-  <si>
-    <t>cafe_count_5000_price_4000</t>
-  </si>
-  <si>
-    <t>cafe_count_5000_price_1000</t>
-  </si>
-  <si>
-    <t>cafe_count_3000_price_2500</t>
-  </si>
-  <si>
-    <t>bulvar_ring_km</t>
-  </si>
-  <si>
-    <t>big_road2_km</t>
-  </si>
-  <si>
-    <t>big_church_km</t>
-  </si>
-  <si>
-    <t>basketball_km</t>
-  </si>
-  <si>
-    <t>additional_education_km</t>
+    <t>sport_count_1500</t>
+  </si>
+  <si>
+    <t>shopping_centers_raion</t>
+  </si>
+  <si>
+    <t>school_quota</t>
+  </si>
+  <si>
+    <t>raion_popul</t>
+  </si>
+  <si>
+    <t>railroad_station_walk_min</t>
+  </si>
+  <si>
+    <t>railroad_station_walk_km</t>
+  </si>
+  <si>
+    <t>prom_part_5000</t>
+  </si>
+  <si>
+    <t>prom_part_500</t>
+  </si>
+  <si>
+    <t>prom_part_3000</t>
+  </si>
+  <si>
+    <t>prom_part_1000</t>
+  </si>
+  <si>
+    <t>preschool_education_centers_raion</t>
+  </si>
+  <si>
+    <t>office_sqm_1000</t>
+  </si>
+  <si>
+    <t>office_raion</t>
+  </si>
+  <si>
+    <t>office_count_5000</t>
+  </si>
+  <si>
+    <t>office_count_500</t>
+  </si>
+  <si>
+    <t>office_count_3000</t>
+  </si>
+  <si>
+    <t>office_count_1000</t>
+  </si>
+  <si>
+    <t>mosque_count_5000</t>
+  </si>
+  <si>
+    <t>leisure_count_2000</t>
+  </si>
+  <si>
+    <t>incineration_raion</t>
+  </si>
+  <si>
+    <t>ice_rink_km</t>
+  </si>
+  <si>
+    <t>green_part_500</t>
+  </si>
+  <si>
+    <t>green_part_1000</t>
+  </si>
+  <si>
+    <t>ekder_all</t>
+  </si>
+  <si>
+    <t>culture_objects_top_25</t>
+  </si>
+  <si>
+    <t>church_count_500</t>
+  </si>
+  <si>
+    <t>church_count_1500</t>
+  </si>
+  <si>
+    <t>church_count_1000</t>
+  </si>
+  <si>
+    <t>children_school</t>
+  </si>
+  <si>
+    <t>cafe_count_500_price_2500</t>
+  </si>
+  <si>
+    <t>cafe_count_500_na_price</t>
+  </si>
+  <si>
+    <t>cafe_count_5000_price_500</t>
+  </si>
+  <si>
+    <t>cafe_count_5000_price_2500</t>
+  </si>
+  <si>
+    <t>cafe_count_5000_price_1500</t>
+  </si>
+  <si>
+    <t>cafe_count_5000_na_price</t>
+  </si>
+  <si>
+    <t>cafe_count_5000</t>
+  </si>
+  <si>
+    <t>cafe_count_3000_price_1000</t>
+  </si>
+  <si>
+    <t>cafe_count_3000_na_price</t>
+  </si>
+  <si>
+    <t>cafe_count_1000_price_high</t>
+  </si>
+  <si>
+    <t>cafe_count_1000_price_4000</t>
+  </si>
+  <si>
+    <t>cafe_count_1000_price_1000</t>
+  </si>
+  <si>
+    <t>cafe_count_1000_na_price</t>
+  </si>
+  <si>
+    <t>cafe_avg_price_2000</t>
+  </si>
+  <si>
+    <t>bus_terminal_avto_km</t>
+  </si>
+  <si>
+    <t>build_count_wood</t>
+  </si>
+  <si>
+    <t>build_count_slag</t>
+  </si>
+  <si>
+    <t>build_count_monolith</t>
+  </si>
+  <si>
+    <t>build_count_frame</t>
+  </si>
+  <si>
+    <t>build_count_before_1920</t>
+  </si>
+  <si>
+    <t>build_count_1921-1945</t>
   </si>
   <si>
     <t>7_14_male</t>
   </si>
   <si>
-    <t>7_14_female</t>
-  </si>
-  <si>
-    <t>0_6_male</t>
+    <t>7_14_all</t>
+  </si>
+  <si>
+    <t>0_6_female</t>
+  </si>
+  <si>
+    <t>0_6_all</t>
   </si>
   <si>
     <t>0_17_male</t>
   </si>
   <si>
+    <t>0_17_female</t>
+  </si>
+  <si>
+    <t>0_13_female</t>
+  </si>
+  <si>
     <t>0_13_all</t>
   </si>
   <si>
-    <t>young_female</t>
-  </si>
-  <si>
-    <t>young_all</t>
-  </si>
-  <si>
-    <t>work_all</t>
+    <t>year</t>
+  </si>
+  <si>
+    <t>water_treatment_km</t>
+  </si>
+  <si>
+    <t>water_km</t>
+  </si>
+  <si>
+    <t>university_top_20_raion</t>
   </si>
   <si>
     <t>trc_sqm_2000</t>
   </si>
   <si>
-    <t>theater_km</t>
-  </si>
-  <si>
-    <t>state</t>
-  </si>
-  <si>
-    <t>sport_count_1500</t>
-  </si>
-  <si>
-    <t>shopping_centers_raion</t>
-  </si>
-  <si>
-    <t>raion_popul</t>
-  </si>
-  <si>
-    <t>railroad_station_walk_min</t>
-  </si>
-  <si>
-    <t>railroad_station_walk_km</t>
-  </si>
-  <si>
-    <t>railroad_km</t>
-  </si>
-  <si>
-    <t>prom_part_5000</t>
-  </si>
-  <si>
-    <t>prom_part_3000</t>
-  </si>
-  <si>
-    <t>prom_part_2000</t>
-  </si>
-  <si>
-    <t>prom_part_1500</t>
-  </si>
-  <si>
-    <t>preschool_education_centers_raion</t>
-  </si>
-  <si>
-    <t>office_sqm_3000</t>
-  </si>
-  <si>
-    <t>office_count_5000</t>
-  </si>
-  <si>
-    <t>mosque_count_5000</t>
-  </si>
-  <si>
-    <t>mkad_km</t>
-  </si>
-  <si>
-    <t>market_shop_km</t>
-  </si>
-  <si>
-    <t>kremlin_km</t>
-  </si>
-  <si>
-    <t>incineration_raion</t>
-  </si>
-  <si>
-    <t>ice_rink_km</t>
-  </si>
-  <si>
-    <t>green_zone_km</t>
-  </si>
-  <si>
-    <t>green_part_500</t>
-  </si>
-  <si>
-    <t>green_part_2000</t>
-  </si>
-  <si>
-    <t>green_part_1500</t>
-  </si>
-  <si>
-    <t>green_part_1000</t>
-  </si>
-  <si>
-    <t>ekder_all</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>culture_objects_top_25</t>
+    <t>trc_count_1000</t>
+  </si>
+  <si>
+    <t>thermal_power_plant_raion</t>
+  </si>
+  <si>
+    <t>sport_count_500</t>
+  </si>
+  <si>
+    <t>school_education_centers_top_20_raion</t>
+  </si>
+  <si>
+    <t>railroad_1line</t>
+  </si>
+  <si>
+    <t>radiation_raion</t>
+  </si>
+  <si>
+    <t>oil_chemistry_raion</t>
+  </si>
+  <si>
+    <t>office_sqm_2000</t>
+  </si>
+  <si>
+    <t>office_sqm_1500</t>
+  </si>
+  <si>
+    <t>mosque_count_3000</t>
+  </si>
+  <si>
+    <t>mosque_count_1500</t>
+  </si>
+  <si>
+    <t>mosque_count_1000</t>
+  </si>
+  <si>
+    <t>month_num</t>
+  </si>
+  <si>
+    <t>month</t>
+  </si>
+  <si>
+    <t>material</t>
+  </si>
+  <si>
+    <t>life_sq</t>
+  </si>
+  <si>
+    <t>leisure_count_5000</t>
+  </si>
+  <si>
+    <t>industrial_km</t>
+  </si>
+  <si>
+    <t>indust_part</t>
+  </si>
+  <si>
+    <t>diff_date</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>culture_objects_top_25_raion</t>
   </si>
   <si>
     <t>church_count_5000</t>
   </si>
   <si>
-    <t>church_count_1000</t>
-  </si>
-  <si>
-    <t>children_school</t>
-  </si>
-  <si>
-    <t>children_preschool</t>
-  </si>
-  <si>
-    <t>cemetery_km</t>
-  </si>
-  <si>
-    <t>cafe_sum_5000_min_price_avg</t>
-  </si>
-  <si>
-    <t>cafe_sum_2000_min_price_avg</t>
-  </si>
-  <si>
-    <t>cafe_sum_1500_min_price_avg</t>
-  </si>
-  <si>
-    <t>cafe_count_500_price_2500</t>
-  </si>
-  <si>
-    <t>cafe_count_5000_price_500</t>
-  </si>
-  <si>
-    <t>cafe_count_5000_price_2500</t>
-  </si>
-  <si>
-    <t>cafe_count_5000_price_1500</t>
-  </si>
-  <si>
-    <t>cafe_count_5000_na_price</t>
-  </si>
-  <si>
-    <t>cafe_count_5000</t>
-  </si>
-  <si>
-    <t>cafe_count_3000_price_1000</t>
-  </si>
-  <si>
-    <t>cafe_count_1000_price_4000</t>
-  </si>
-  <si>
-    <t>cafe_count_1000_price_1000</t>
+    <t>church_count_2000</t>
+  </si>
+  <si>
+    <t>cafe_sum_5000_max_price_avg</t>
+  </si>
+  <si>
+    <t>cafe_sum_3000_min_price_avg</t>
+  </si>
+  <si>
+    <t>cafe_sum_3000_max_price_avg</t>
+  </si>
+  <si>
+    <t>cafe_sum_2000_max_price_avg</t>
+  </si>
+  <si>
+    <t>cafe_sum_1500_max_price_avg</t>
+  </si>
+  <si>
+    <t>cafe_count_500_price_high</t>
+  </si>
+  <si>
+    <t>cafe_count_500_price_500</t>
+  </si>
+  <si>
+    <t>cafe_count_500_price_1500</t>
+  </si>
+  <si>
+    <t>cafe_count_3000_price_500</t>
+  </si>
+  <si>
+    <t>cafe_count_3000_price_1500</t>
+  </si>
+  <si>
+    <t>cafe_count_3000</t>
+  </si>
+  <si>
+    <t>cafe_count_2000_price_high</t>
+  </si>
+  <si>
+    <t>cafe_count_2000_price_4000</t>
+  </si>
+  <si>
+    <t>cafe_count_2000_price_2500</t>
+  </si>
+  <si>
+    <t>cafe_count_2000_price_1500</t>
+  </si>
+  <si>
+    <t>cafe_count_2000</t>
+  </si>
+  <si>
+    <t>cafe_count_1500_price_4000</t>
+  </si>
+  <si>
+    <t>cafe_count_1500</t>
+  </si>
+  <si>
+    <t>cafe_count_1000</t>
+  </si>
+  <si>
+    <t>cafe_avg_price_5000</t>
+  </si>
+  <si>
+    <t>cafe_avg_price_3000</t>
   </si>
   <si>
     <t>cafe_avg_price_1500</t>
   </si>
   <si>
-    <t>bus_terminal_avto_km</t>
-  </si>
-  <si>
-    <t>big_market_km</t>
-  </si>
-  <si>
-    <t>7_14_all</t>
-  </si>
-  <si>
-    <t>0_6_female</t>
-  </si>
-  <si>
-    <t>0_6_all</t>
-  </si>
-  <si>
-    <t>0_17_female</t>
-  </si>
-  <si>
-    <t>0_17_all</t>
-  </si>
-  <si>
-    <t>0_13_male</t>
-  </si>
-  <si>
-    <t>0_13_female</t>
-  </si>
-  <si>
-    <t>year</t>
-  </si>
-  <si>
-    <t>water_treatment_km</t>
-  </si>
-  <si>
-    <t>water_km</t>
-  </si>
-  <si>
-    <t>university_top_20_raion</t>
-  </si>
-  <si>
-    <t>trc_count_1000</t>
-  </si>
-  <si>
-    <t>thermal_power_plant_raion</t>
-  </si>
-  <si>
-    <t>sport_count_500</t>
-  </si>
-  <si>
-    <t>school_quota</t>
-  </si>
-  <si>
-    <t>school_education_centers_top_20_raion</t>
-  </si>
-  <si>
-    <t>railroad_1line</t>
-  </si>
-  <si>
-    <t>radiation_raion</t>
-  </si>
-  <si>
-    <t>prom_part_500</t>
-  </si>
-  <si>
-    <t>prom_part_1000</t>
-  </si>
-  <si>
-    <t>oil_chemistry_raion</t>
-  </si>
-  <si>
-    <t>office_sqm_2000</t>
-  </si>
-  <si>
-    <t>office_sqm_1500</t>
-  </si>
-  <si>
-    <t>office_sqm_1000</t>
-  </si>
-  <si>
-    <t>office_raion</t>
-  </si>
-  <si>
-    <t>office_count_500</t>
-  </si>
-  <si>
-    <t>office_count_3000</t>
-  </si>
-  <si>
-    <t>office_count_1000</t>
-  </si>
-  <si>
-    <t>mosque_count_3000</t>
-  </si>
-  <si>
-    <t>mosque_count_1500</t>
-  </si>
-  <si>
-    <t>mosque_count_1000</t>
-  </si>
-  <si>
-    <t>month_num</t>
-  </si>
-  <si>
-    <t>month</t>
-  </si>
-  <si>
-    <t>material</t>
-  </si>
-  <si>
-    <t>life_sq</t>
-  </si>
-  <si>
-    <t>leisure_count_5000</t>
-  </si>
-  <si>
-    <t>leisure_count_2000</t>
-  </si>
-  <si>
-    <t>industrial_km</t>
-  </si>
-  <si>
-    <t>indust_part</t>
-  </si>
-  <si>
-    <t>diff_date</t>
-  </si>
-  <si>
-    <t>culture_objects_top_25_raion</t>
-  </si>
-  <si>
-    <t>church_count_500</t>
-  </si>
-  <si>
-    <t>church_count_1500</t>
-  </si>
-  <si>
-    <t>cafe_sum_5000_max_price_avg</t>
-  </si>
-  <si>
-    <t>cafe_sum_3000_min_price_avg</t>
-  </si>
-  <si>
-    <t>cafe_sum_3000_max_price_avg</t>
-  </si>
-  <si>
-    <t>cafe_sum_2000_max_price_avg</t>
-  </si>
-  <si>
-    <t>cafe_sum_1500_max_price_avg</t>
-  </si>
-  <si>
-    <t>cafe_count_500_price_high</t>
-  </si>
-  <si>
-    <t>cafe_count_500_price_500</t>
-  </si>
-  <si>
-    <t>cafe_count_500_price_1500</t>
-  </si>
-  <si>
-    <t>cafe_count_500_na_price</t>
-  </si>
-  <si>
-    <t>cafe_count_3000_price_500</t>
-  </si>
-  <si>
-    <t>cafe_count_3000_price_1500</t>
-  </si>
-  <si>
-    <t>cafe_count_3000_na_price</t>
-  </si>
-  <si>
-    <t>cafe_count_3000</t>
+    <t>build_year</t>
+  </si>
+  <si>
+    <t>build_count_mix</t>
+  </si>
+  <si>
+    <t>build_count_foam</t>
+  </si>
+  <si>
+    <t>build_count_block</t>
+  </si>
+  <si>
+    <t>build_count_after_1995</t>
+  </si>
+  <si>
+    <t>build_count_1971-1995</t>
+  </si>
+  <si>
+    <t>big_road1_km</t>
+  </si>
+  <si>
+    <t>big_road1_1line</t>
+  </si>
+  <si>
+    <t>big_market_raion</t>
+  </si>
+  <si>
+    <t>big_church_count_5000</t>
+  </si>
+  <si>
+    <t>ID_railroad_terminal</t>
+  </si>
+  <si>
+    <t>ID_metro</t>
+  </si>
+  <si>
+    <t>ID_bus_terminal</t>
+  </si>
+  <si>
+    <t>water_1line</t>
+  </si>
+  <si>
+    <t>trc_sqm_500</t>
+  </si>
+  <si>
+    <t>trc_sqm_1500</t>
+  </si>
+  <si>
+    <t>trc_sqm_1000</t>
+  </si>
+  <si>
+    <t>trc_count_500</t>
+  </si>
+  <si>
+    <t>sub_area</t>
+  </si>
+  <si>
+    <t>raion_build_count_with_material_info</t>
+  </si>
+  <si>
+    <t>raion_build_count_with_builddate_info</t>
+  </si>
+  <si>
+    <t>railroad_terminal_raion</t>
+  </si>
+  <si>
+    <t>preschool_quota</t>
+  </si>
+  <si>
+    <t>office_sqm_500</t>
+  </si>
+  <si>
+    <t>office_count_2000</t>
+  </si>
+  <si>
+    <t>office_count_1500</t>
+  </si>
+  <si>
+    <t>nuclear_reactor_raion</t>
+  </si>
+  <si>
+    <t>mosque_count_500</t>
+  </si>
+  <si>
+    <t>mosque_count_2000</t>
+  </si>
+  <si>
+    <t>market_count_500</t>
+  </si>
+  <si>
+    <t>market_count_2000</t>
+  </si>
+  <si>
+    <t>market_count_1500</t>
+  </si>
+  <si>
+    <t>market_count_1000</t>
+  </si>
+  <si>
+    <t>male_f</t>
+  </si>
+  <si>
+    <t>leisure_count_500</t>
+  </si>
+  <si>
+    <t>leisure_count_3000</t>
+  </si>
+  <si>
+    <t>leisure_count_1500</t>
+  </si>
+  <si>
+    <t>leisure_count_1000</t>
+  </si>
+  <si>
+    <t>hospital_beds_raion</t>
+  </si>
+  <si>
+    <t>green_zone_part</t>
+  </si>
+  <si>
+    <t>full_all</t>
+  </si>
+  <si>
+    <t>female_f</t>
+  </si>
+  <si>
+    <t>ecology</t>
+  </si>
+  <si>
+    <t>detention_facility_raion</t>
+  </si>
+  <si>
+    <t>church_count_3000</t>
+  </si>
+  <si>
+    <t>cafe_sum_500_min_price_avg</t>
+  </si>
+  <si>
+    <t>cafe_sum_500_max_price_avg</t>
+  </si>
+  <si>
+    <t>cafe_sum_1000_min_price_avg</t>
+  </si>
+  <si>
+    <t>cafe_sum_1000_max_price_avg</t>
+  </si>
+  <si>
+    <t>cafe_count_500_price_4000</t>
+  </si>
+  <si>
+    <t>cafe_count_500_price_1000</t>
+  </si>
+  <si>
+    <t>cafe_count_500</t>
+  </si>
+  <si>
+    <t>cafe_count_3000_price_high</t>
+  </si>
+  <si>
+    <t>cafe_count_3000_price_4000</t>
   </si>
   <si>
     <t>cafe_count_2000_price_500</t>
   </si>
   <si>
-    <t>cafe_count_2000_price_4000</t>
-  </si>
-  <si>
-    <t>cafe_count_2000_price_1500</t>
-  </si>
-  <si>
     <t>cafe_count_2000_price_1000</t>
   </si>
   <si>
-    <t>cafe_count_2000</t>
+    <t>cafe_count_2000_na_price</t>
+  </si>
+  <si>
+    <t>cafe_count_1500_price_high</t>
+  </si>
+  <si>
+    <t>cafe_count_1500_price_500</t>
+  </si>
+  <si>
+    <t>cafe_count_1500_price_2500</t>
+  </si>
+  <si>
+    <t>cafe_count_1500_price_1500</t>
   </si>
   <si>
     <t>cafe_count_1500_price_1000</t>
   </si>
   <si>
-    <t>cafe_count_1500</t>
-  </si>
-  <si>
-    <t>cafe_count_1000_price_high</t>
-  </si>
-  <si>
-    <t>cafe_count_1000_na_price</t>
-  </si>
-  <si>
-    <t>cafe_count_1000</t>
-  </si>
-  <si>
-    <t>cafe_avg_price_5000</t>
-  </si>
-  <si>
-    <t>cafe_avg_price_3000</t>
-  </si>
-  <si>
-    <t>cafe_avg_price_2000</t>
-  </si>
-  <si>
-    <t>build_year</t>
-  </si>
-  <si>
-    <t>build_count_wood</t>
-  </si>
-  <si>
-    <t>build_count_slag</t>
-  </si>
-  <si>
-    <t>build_count_monolith</t>
-  </si>
-  <si>
-    <t>build_count_mix</t>
-  </si>
-  <si>
-    <t>build_count_frame</t>
-  </si>
-  <si>
-    <t>build_count_foam</t>
+    <t>cafe_count_1500_na_price</t>
+  </si>
+  <si>
+    <t>cafe_count_1000_price_500</t>
+  </si>
+  <si>
+    <t>cafe_count_1000_price_2500</t>
+  </si>
+  <si>
+    <t>cafe_count_1000_price_1500</t>
+  </si>
+  <si>
+    <t>cafe_avg_price_500</t>
+  </si>
+  <si>
+    <t>cafe_avg_price_1000</t>
+  </si>
+  <si>
+    <t>build_count_panel</t>
   </si>
   <si>
     <t>build_count_brick</t>
-  </si>
-  <si>
-    <t>build_count_block</t>
-  </si>
-  <si>
-    <t>build_count_before_1920</t>
-  </si>
-  <si>
-    <t>build_count_after_1995</t>
-  </si>
-  <si>
-    <t>build_count_1971-1995</t>
-  </si>
-  <si>
-    <t>build_count_1921-1945</t>
-  </si>
-  <si>
-    <t>big_road1_km</t>
-  </si>
-  <si>
-    <t>big_road1_1line</t>
-  </si>
-  <si>
-    <t>big_market_raion</t>
-  </si>
-  <si>
-    <t>big_church_count_5000</t>
-  </si>
-  <si>
-    <t>ID_railroad_terminal</t>
-  </si>
-  <si>
-    <t>ID_metro</t>
-  </si>
-  <si>
-    <t>ID_bus_terminal</t>
-  </si>
-  <si>
-    <t>water_1line</t>
-  </si>
-  <si>
-    <t>trc_sqm_500</t>
-  </si>
-  <si>
-    <t>trc_sqm_1500</t>
-  </si>
-  <si>
-    <t>trc_sqm_1000</t>
-  </si>
-  <si>
-    <t>trc_count_500</t>
-  </si>
-  <si>
-    <t>sub_area</t>
-  </si>
-  <si>
-    <t>raion_build_count_with_material_info</t>
-  </si>
-  <si>
-    <t>raion_build_count_with_builddate_info</t>
-  </si>
-  <si>
-    <t>railroad_terminal_raion</t>
-  </si>
-  <si>
-    <t>preschool_quota</t>
-  </si>
-  <si>
-    <t>office_sqm_500</t>
-  </si>
-  <si>
-    <t>office_count_2000</t>
-  </si>
-  <si>
-    <t>office_count_1500</t>
-  </si>
-  <si>
-    <t>nuclear_reactor_raion</t>
-  </si>
-  <si>
-    <t>mosque_count_500</t>
-  </si>
-  <si>
-    <t>mosque_count_2000</t>
-  </si>
-  <si>
-    <t>market_count_500</t>
-  </si>
-  <si>
-    <t>market_count_2000</t>
-  </si>
-  <si>
-    <t>market_count_1500</t>
-  </si>
-  <si>
-    <t>market_count_1000</t>
-  </si>
-  <si>
-    <t>male_f</t>
-  </si>
-  <si>
-    <t>leisure_count_500</t>
-  </si>
-  <si>
-    <t>leisure_count_3000</t>
-  </si>
-  <si>
-    <t>leisure_count_1500</t>
-  </si>
-  <si>
-    <t>leisure_count_1000</t>
-  </si>
-  <si>
-    <t>hospital_beds_raion</t>
-  </si>
-  <si>
-    <t>green_zone_part</t>
-  </si>
-  <si>
-    <t>full_all</t>
-  </si>
-  <si>
-    <t>female_f</t>
-  </si>
-  <si>
-    <t>ecology</t>
-  </si>
-  <si>
-    <t>detention_facility_raion</t>
-  </si>
-  <si>
-    <t>church_count_3000</t>
-  </si>
-  <si>
-    <t>church_count_2000</t>
-  </si>
-  <si>
-    <t>cafe_sum_500_min_price_avg</t>
-  </si>
-  <si>
-    <t>cafe_sum_500_max_price_avg</t>
-  </si>
-  <si>
-    <t>cafe_sum_1000_min_price_avg</t>
-  </si>
-  <si>
-    <t>cafe_sum_1000_max_price_avg</t>
-  </si>
-  <si>
-    <t>cafe_count_500_price_4000</t>
-  </si>
-  <si>
-    <t>cafe_count_500_price_1000</t>
-  </si>
-  <si>
-    <t>cafe_count_500</t>
-  </si>
-  <si>
-    <t>cafe_count_3000_price_high</t>
-  </si>
-  <si>
-    <t>cafe_count_3000_price_4000</t>
-  </si>
-  <si>
-    <t>cafe_count_2000_price_high</t>
-  </si>
-  <si>
-    <t>cafe_count_2000_price_2500</t>
-  </si>
-  <si>
-    <t>cafe_count_2000_na_price</t>
-  </si>
-  <si>
-    <t>cafe_count_1500_price_high</t>
-  </si>
-  <si>
-    <t>cafe_count_1500_price_500</t>
-  </si>
-  <si>
-    <t>cafe_count_1500_price_4000</t>
-  </si>
-  <si>
-    <t>cafe_count_1500_price_2500</t>
-  </si>
-  <si>
-    <t>cafe_count_1500_price_1500</t>
-  </si>
-  <si>
-    <t>cafe_count_1500_na_price</t>
-  </si>
-  <si>
-    <t>cafe_count_1000_price_500</t>
-  </si>
-  <si>
-    <t>cafe_count_1000_price_2500</t>
-  </si>
-  <si>
-    <t>cafe_count_1000_price_1500</t>
-  </si>
-  <si>
-    <t>cafe_avg_price_500</t>
-  </si>
-  <si>
-    <t>cafe_avg_price_1000</t>
-  </si>
-  <si>
-    <t>build_count_panel</t>
   </si>
   <si>
     <t>build_count_1946-1970</t>
@@ -1274,7 +1277,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H295"/>
+  <dimension ref="A1:H296"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1603,7 +1606,7 @@
         <v>1</v>
       </c>
       <c r="E13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13" t="b">
         <v>1</v>
@@ -1612,7 +1615,7 @@
         <v>1</v>
       </c>
       <c r="H13">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1629,7 +1632,7 @@
         <v>1</v>
       </c>
       <c r="E14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" t="b">
         <v>1</v>
@@ -1638,7 +1641,7 @@
         <v>1</v>
       </c>
       <c r="H14">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1655,7 +1658,7 @@
         <v>1</v>
       </c>
       <c r="E15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" t="b">
         <v>1</v>
@@ -1664,7 +1667,7 @@
         <v>1</v>
       </c>
       <c r="H15">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1681,7 +1684,7 @@
         <v>1</v>
       </c>
       <c r="E16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" t="b">
         <v>1</v>
@@ -1690,7 +1693,7 @@
         <v>1</v>
       </c>
       <c r="H16">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1707,7 +1710,7 @@
         <v>1</v>
       </c>
       <c r="E17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17" t="b">
         <v>1</v>
@@ -1716,7 +1719,7 @@
         <v>1</v>
       </c>
       <c r="H17">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1733,7 +1736,7 @@
         <v>1</v>
       </c>
       <c r="E18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" t="b">
         <v>1</v>
@@ -1742,7 +1745,7 @@
         <v>1</v>
       </c>
       <c r="H18">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1759,7 +1762,7 @@
         <v>1</v>
       </c>
       <c r="E19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19" t="b">
         <v>1</v>
@@ -1768,7 +1771,7 @@
         <v>1</v>
       </c>
       <c r="H19">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1785,7 +1788,7 @@
         <v>1</v>
       </c>
       <c r="E20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20" t="b">
         <v>1</v>
@@ -1794,7 +1797,7 @@
         <v>1</v>
       </c>
       <c r="H20">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1811,7 +1814,7 @@
         <v>1</v>
       </c>
       <c r="E21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21" t="b">
         <v>1</v>
@@ -1820,7 +1823,7 @@
         <v>1</v>
       </c>
       <c r="H21">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1837,7 +1840,7 @@
         <v>1</v>
       </c>
       <c r="E22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22" t="b">
         <v>1</v>
@@ -1846,7 +1849,7 @@
         <v>1</v>
       </c>
       <c r="H22">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1863,7 +1866,7 @@
         <v>1</v>
       </c>
       <c r="E23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23" t="b">
         <v>1</v>
@@ -1872,7 +1875,7 @@
         <v>1</v>
       </c>
       <c r="H23">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1886,7 +1889,7 @@
         <v>1</v>
       </c>
       <c r="D24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24" t="b">
         <v>1</v>
@@ -1898,7 +1901,7 @@
         <v>1</v>
       </c>
       <c r="H24">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1912,7 +1915,7 @@
         <v>1</v>
       </c>
       <c r="D25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25" t="b">
         <v>1</v>
@@ -1921,7 +1924,7 @@
         <v>1</v>
       </c>
       <c r="G25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25">
         <v>4</v>
@@ -1990,10 +1993,10 @@
         <v>1</v>
       </c>
       <c r="D28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F28" t="b">
         <v>1</v>
@@ -2042,13 +2045,13 @@
         <v>1</v>
       </c>
       <c r="D30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30" t="b">
         <v>1</v>
       </c>
       <c r="F30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G30" t="b">
         <v>1</v>
@@ -2120,7 +2123,7 @@
         <v>1</v>
       </c>
       <c r="D33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E33" t="b">
         <v>1</v>
@@ -2129,7 +2132,7 @@
         <v>1</v>
       </c>
       <c r="G33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H33">
         <v>4</v>
@@ -2152,10 +2155,10 @@
         <v>1</v>
       </c>
       <c r="F34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H34">
         <v>4</v>
@@ -2175,7 +2178,7 @@
         <v>1</v>
       </c>
       <c r="E35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F35" t="b">
         <v>0</v>
@@ -2184,7 +2187,7 @@
         <v>1</v>
       </c>
       <c r="H35">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2201,7 +2204,7 @@
         <v>1</v>
       </c>
       <c r="E36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F36" t="b">
         <v>1</v>
@@ -2210,7 +2213,7 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2227,16 +2230,16 @@
         <v>1</v>
       </c>
       <c r="E37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H37">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2250,19 +2253,19 @@
         <v>1</v>
       </c>
       <c r="D38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G38" t="b">
         <v>1</v>
       </c>
       <c r="H38">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2276,7 +2279,7 @@
         <v>1</v>
       </c>
       <c r="D39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E39" t="b">
         <v>0</v>
@@ -2288,7 +2291,7 @@
         <v>1</v>
       </c>
       <c r="H39">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2305,7 +2308,7 @@
         <v>1</v>
       </c>
       <c r="E40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F40" t="b">
         <v>0</v>
@@ -2314,7 +2317,7 @@
         <v>1</v>
       </c>
       <c r="H40">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2328,19 +2331,19 @@
         <v>1</v>
       </c>
       <c r="D41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G41" t="b">
         <v>1</v>
       </c>
       <c r="H41">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2351,22 +2354,22 @@
         <v>47</v>
       </c>
       <c r="C42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D42" t="b">
         <v>1</v>
       </c>
       <c r="E42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G42" t="b">
         <v>1</v>
       </c>
       <c r="H42">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2380,19 +2383,19 @@
         <v>1</v>
       </c>
       <c r="D43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F43" t="b">
         <v>1</v>
       </c>
       <c r="G43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H43">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2406,19 +2409,19 @@
         <v>1</v>
       </c>
       <c r="D44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G44" t="b">
         <v>1</v>
       </c>
       <c r="H44">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2432,19 +2435,19 @@
         <v>1</v>
       </c>
       <c r="D45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F45" t="b">
         <v>1</v>
       </c>
       <c r="G45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H45">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2458,19 +2461,19 @@
         <v>1</v>
       </c>
       <c r="D46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G46" t="b">
         <v>1</v>
       </c>
       <c r="H46">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2484,19 +2487,19 @@
         <v>1</v>
       </c>
       <c r="D47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G47" t="b">
         <v>1</v>
       </c>
       <c r="H47">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2510,19 +2513,19 @@
         <v>1</v>
       </c>
       <c r="D48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F48" t="b">
         <v>1</v>
       </c>
       <c r="G48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H48">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2536,19 +2539,19 @@
         <v>1</v>
       </c>
       <c r="D49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G49" t="b">
         <v>1</v>
       </c>
       <c r="H49">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2559,22 +2562,22 @@
         <v>55</v>
       </c>
       <c r="C50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D50" t="b">
         <v>1</v>
       </c>
       <c r="E50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G50" t="b">
         <v>1</v>
       </c>
       <c r="H50">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2591,16 +2594,16 @@
         <v>1</v>
       </c>
       <c r="E51" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G51" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H51">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2614,19 +2617,19 @@
         <v>1</v>
       </c>
       <c r="D52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G52" t="b">
         <v>1</v>
       </c>
       <c r="H52">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2640,19 +2643,19 @@
         <v>1</v>
       </c>
       <c r="D53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G53" t="b">
         <v>1</v>
       </c>
       <c r="H53">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2669,7 +2672,7 @@
         <v>1</v>
       </c>
       <c r="E54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F54" t="b">
         <v>0</v>
@@ -2678,7 +2681,7 @@
         <v>1</v>
       </c>
       <c r="H54">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2692,19 +2695,19 @@
         <v>1</v>
       </c>
       <c r="D55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F55" t="b">
         <v>1</v>
       </c>
       <c r="G55" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H55">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2721,7 +2724,7 @@
         <v>0</v>
       </c>
       <c r="E56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F56" t="b">
         <v>1</v>
@@ -2730,7 +2733,7 @@
         <v>1</v>
       </c>
       <c r="H56">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2741,10 +2744,10 @@
         <v>62</v>
       </c>
       <c r="C57" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D57" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E57" t="b">
         <v>1</v>
@@ -2753,10 +2756,10 @@
         <v>1</v>
       </c>
       <c r="G57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H57">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2776,10 +2779,10 @@
         <v>0</v>
       </c>
       <c r="F58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H58">
         <v>3</v>
@@ -2802,10 +2805,10 @@
         <v>0</v>
       </c>
       <c r="F59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G59" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H59">
         <v>3</v>
@@ -2819,16 +2822,16 @@
         <v>65</v>
       </c>
       <c r="C60" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D60" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G60" t="b">
         <v>1</v>
@@ -2848,7 +2851,7 @@
         <v>1</v>
       </c>
       <c r="D61" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E61" t="b">
         <v>0</v>
@@ -2857,7 +2860,7 @@
         <v>1</v>
       </c>
       <c r="G61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H61">
         <v>3</v>
@@ -2874,16 +2877,16 @@
         <v>1</v>
       </c>
       <c r="D62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H62">
         <v>3</v>
@@ -2900,13 +2903,13 @@
         <v>1</v>
       </c>
       <c r="D63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E63" t="b">
         <v>0</v>
       </c>
       <c r="F63" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G63" t="b">
         <v>1</v>
@@ -2923,13 +2926,13 @@
         <v>69</v>
       </c>
       <c r="C64" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D64" t="b">
         <v>0</v>
       </c>
       <c r="E64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F64" t="b">
         <v>1</v>
@@ -2949,19 +2952,19 @@
         <v>70</v>
       </c>
       <c r="C65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E65" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F65" t="b">
         <v>1</v>
       </c>
       <c r="G65" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H65">
         <v>3</v>
@@ -2984,10 +2987,10 @@
         <v>0</v>
       </c>
       <c r="F66" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H66">
         <v>3</v>
@@ -3010,10 +3013,10 @@
         <v>0</v>
       </c>
       <c r="F67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G67" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H67">
         <v>3</v>
@@ -3027,16 +3030,16 @@
         <v>73</v>
       </c>
       <c r="C68" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D68" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G68" t="b">
         <v>1</v>
@@ -3056,10 +3059,10 @@
         <v>0</v>
       </c>
       <c r="D69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E69" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F69" t="b">
         <v>1</v>
@@ -3082,10 +3085,10 @@
         <v>0</v>
       </c>
       <c r="D70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E70" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F70" t="b">
         <v>1</v>
@@ -3105,16 +3108,16 @@
         <v>76</v>
       </c>
       <c r="C71" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D71" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G71" t="b">
         <v>1</v>
@@ -3160,10 +3163,10 @@
         <v>1</v>
       </c>
       <c r="D73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E73" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F73" t="b">
         <v>0</v>
@@ -3186,7 +3189,7 @@
         <v>1</v>
       </c>
       <c r="D74" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E74" t="b">
         <v>0</v>
@@ -3195,7 +3198,7 @@
         <v>1</v>
       </c>
       <c r="G74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H74">
         <v>3</v>
@@ -3218,10 +3221,10 @@
         <v>0</v>
       </c>
       <c r="F75" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H75">
         <v>3</v>
@@ -3238,10 +3241,10 @@
         <v>1</v>
       </c>
       <c r="D76" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F76" t="b">
         <v>0</v>
@@ -3261,13 +3264,13 @@
         <v>82</v>
       </c>
       <c r="C77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D77" t="b">
         <v>0</v>
       </c>
       <c r="E77" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F77" t="b">
         <v>1</v>
@@ -3296,10 +3299,10 @@
         <v>0</v>
       </c>
       <c r="F78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G78" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H78">
         <v>3</v>
@@ -3313,19 +3316,19 @@
         <v>84</v>
       </c>
       <c r="C79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E79" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F79" t="b">
         <v>1</v>
       </c>
       <c r="G79" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H79">
         <v>3</v>
@@ -3342,7 +3345,7 @@
         <v>1</v>
       </c>
       <c r="D80" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E80" t="b">
         <v>0</v>
@@ -3351,7 +3354,7 @@
         <v>1</v>
       </c>
       <c r="G80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H80">
         <v>3</v>
@@ -3365,16 +3368,16 @@
         <v>86</v>
       </c>
       <c r="C81" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D81" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E81" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F81" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G81" t="b">
         <v>1</v>
@@ -3391,16 +3394,16 @@
         <v>87</v>
       </c>
       <c r="C82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E82" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F82" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G82" t="b">
         <v>1</v>
@@ -3417,22 +3420,22 @@
         <v>88</v>
       </c>
       <c r="C83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E83" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F83" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G83" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3452,13 +3455,13 @@
         <v>0</v>
       </c>
       <c r="F84" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G84" t="b">
         <v>0</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3478,13 +3481,13 @@
         <v>0</v>
       </c>
       <c r="F85" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G85" t="b">
         <v>0</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3495,22 +3498,22 @@
         <v>91</v>
       </c>
       <c r="C86" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D86" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E86" t="b">
         <v>0</v>
       </c>
       <c r="F86" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G86" t="b">
         <v>1</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3521,22 +3524,22 @@
         <v>92</v>
       </c>
       <c r="C87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D87" t="b">
         <v>0</v>
       </c>
       <c r="E87" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F87" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G87" t="b">
         <v>1</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3547,22 +3550,22 @@
         <v>93</v>
       </c>
       <c r="C88" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D88" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E88" t="b">
         <v>0</v>
       </c>
       <c r="F88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G88" t="b">
         <v>1</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3573,22 +3576,22 @@
         <v>94</v>
       </c>
       <c r="C89" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D89" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E89" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F89" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G89" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3599,22 +3602,22 @@
         <v>95</v>
       </c>
       <c r="C90" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D90" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E90" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F90" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G90" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3625,22 +3628,22 @@
         <v>96</v>
       </c>
       <c r="C91" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D91" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E91" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F91" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G91" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3651,22 +3654,22 @@
         <v>97</v>
       </c>
       <c r="C92" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D92" t="b">
         <v>0</v>
       </c>
       <c r="E92" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F92" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G92" t="b">
         <v>1</v>
       </c>
       <c r="H92">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3677,22 +3680,22 @@
         <v>98</v>
       </c>
       <c r="C93" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E93" t="b">
         <v>0</v>
       </c>
       <c r="F93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G93" t="b">
         <v>1</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3703,22 +3706,22 @@
         <v>99</v>
       </c>
       <c r="C94" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D94" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E94" t="b">
         <v>0</v>
       </c>
       <c r="F94" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G94" t="b">
         <v>1</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3729,22 +3732,22 @@
         <v>100</v>
       </c>
       <c r="C95" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D95" t="b">
         <v>0</v>
       </c>
       <c r="E95" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F95" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G95" t="b">
         <v>1</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3761,7 +3764,7 @@
         <v>0</v>
       </c>
       <c r="E96" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F96" t="b">
         <v>1</v>
@@ -3770,7 +3773,7 @@
         <v>1</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3781,10 +3784,10 @@
         <v>102</v>
       </c>
       <c r="C97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E97" t="b">
         <v>0</v>
@@ -3793,10 +3796,10 @@
         <v>1</v>
       </c>
       <c r="G97" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3807,22 +3810,22 @@
         <v>103</v>
       </c>
       <c r="C98" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D98" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E98" t="b">
         <v>0</v>
       </c>
       <c r="F98" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G98" t="b">
         <v>1</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3845,10 +3848,10 @@
         <v>0</v>
       </c>
       <c r="G99" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3859,7 +3862,7 @@
         <v>105</v>
       </c>
       <c r="C100" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D100" t="b">
         <v>1</v>
@@ -3868,7 +3871,7 @@
         <v>0</v>
       </c>
       <c r="F100" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G100" t="b">
         <v>0</v>
@@ -3885,7 +3888,7 @@
         <v>106</v>
       </c>
       <c r="C101" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D101" t="b">
         <v>1</v>
@@ -3897,7 +3900,7 @@
         <v>0</v>
       </c>
       <c r="G101" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H101">
         <v>2</v>
@@ -3911,7 +3914,7 @@
         <v>107</v>
       </c>
       <c r="C102" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D102" t="b">
         <v>1</v>
@@ -3920,7 +3923,7 @@
         <v>0</v>
       </c>
       <c r="F102" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G102" t="b">
         <v>0</v>
@@ -3937,19 +3940,19 @@
         <v>108</v>
       </c>
       <c r="C103" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D103" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E103" t="b">
         <v>0</v>
       </c>
       <c r="F103" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G103" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H103">
         <v>2</v>
@@ -3966,7 +3969,7 @@
         <v>1</v>
       </c>
       <c r="D104" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E104" t="b">
         <v>0</v>
@@ -3975,7 +3978,7 @@
         <v>0</v>
       </c>
       <c r="G104" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H104">
         <v>2</v>
@@ -3992,7 +3995,7 @@
         <v>1</v>
       </c>
       <c r="D105" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E105" t="b">
         <v>0</v>
@@ -4001,7 +4004,7 @@
         <v>0</v>
       </c>
       <c r="G105" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H105">
         <v>2</v>
@@ -4018,10 +4021,10 @@
         <v>0</v>
       </c>
       <c r="D106" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E106" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F106" t="b">
         <v>1</v>
@@ -4044,7 +4047,7 @@
         <v>1</v>
       </c>
       <c r="D107" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E107" t="b">
         <v>0</v>
@@ -4053,7 +4056,7 @@
         <v>0</v>
       </c>
       <c r="G107" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H107">
         <v>2</v>
@@ -4067,7 +4070,7 @@
         <v>113</v>
       </c>
       <c r="C108" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D108" t="b">
         <v>0</v>
@@ -4076,7 +4079,7 @@
         <v>0</v>
       </c>
       <c r="F108" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G108" t="b">
         <v>1</v>
@@ -4093,7 +4096,7 @@
         <v>114</v>
       </c>
       <c r="C109" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D109" t="b">
         <v>0</v>
@@ -4102,7 +4105,7 @@
         <v>0</v>
       </c>
       <c r="F109" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G109" t="b">
         <v>1</v>
@@ -4119,7 +4122,7 @@
         <v>115</v>
       </c>
       <c r="C110" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D110" t="b">
         <v>0</v>
@@ -4128,7 +4131,7 @@
         <v>0</v>
       </c>
       <c r="F110" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G110" t="b">
         <v>1</v>
@@ -4151,13 +4154,13 @@
         <v>0</v>
       </c>
       <c r="E111" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F111" t="b">
         <v>1</v>
       </c>
       <c r="G111" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H111">
         <v>2</v>
@@ -4197,16 +4200,16 @@
         <v>118</v>
       </c>
       <c r="C113" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D113" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E113" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F113" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G113" t="b">
         <v>0</v>
@@ -4223,19 +4226,19 @@
         <v>119</v>
       </c>
       <c r="C114" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D114" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E114" t="b">
         <v>0</v>
       </c>
       <c r="F114" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G114" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H114">
         <v>2</v>
@@ -4252,10 +4255,10 @@
         <v>0</v>
       </c>
       <c r="D115" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E115" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F115" t="b">
         <v>1</v>
@@ -4278,16 +4281,16 @@
         <v>0</v>
       </c>
       <c r="D116" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E116" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F116" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G116" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H116">
         <v>2</v>
@@ -4304,16 +4307,16 @@
         <v>0</v>
       </c>
       <c r="D117" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E117" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F117" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G117" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H117">
         <v>2</v>
@@ -4327,16 +4330,16 @@
         <v>123</v>
       </c>
       <c r="C118" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D118" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E118" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F118" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G118" t="b">
         <v>0</v>
@@ -4353,19 +4356,19 @@
         <v>124</v>
       </c>
       <c r="C119" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D119" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E119" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F119" t="b">
         <v>0</v>
       </c>
       <c r="G119" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H119">
         <v>2</v>
@@ -4385,13 +4388,13 @@
         <v>0</v>
       </c>
       <c r="E120" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F120" t="b">
         <v>1</v>
       </c>
       <c r="G120" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H120">
         <v>2</v>
@@ -4408,7 +4411,7 @@
         <v>0</v>
       </c>
       <c r="D121" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E121" t="b">
         <v>0</v>
@@ -4417,7 +4420,7 @@
         <v>1</v>
       </c>
       <c r="G121" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H121">
         <v>2</v>
@@ -4437,13 +4440,13 @@
         <v>0</v>
       </c>
       <c r="E122" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F122" t="b">
         <v>1</v>
       </c>
       <c r="G122" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H122">
         <v>2</v>
@@ -4460,7 +4463,7 @@
         <v>0</v>
       </c>
       <c r="D123" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E123" t="b">
         <v>0</v>
@@ -4469,7 +4472,7 @@
         <v>1</v>
       </c>
       <c r="G123" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H123">
         <v>2</v>
@@ -4483,19 +4486,19 @@
         <v>129</v>
       </c>
       <c r="C124" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D124" t="b">
         <v>0</v>
       </c>
       <c r="E124" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F124" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G124" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H124">
         <v>2</v>
@@ -4512,13 +4515,13 @@
         <v>0</v>
       </c>
       <c r="D125" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E125" t="b">
         <v>0</v>
       </c>
       <c r="F125" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G125" t="b">
         <v>1</v>
@@ -4538,13 +4541,13 @@
         <v>0</v>
       </c>
       <c r="D126" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E126" t="b">
         <v>0</v>
       </c>
       <c r="F126" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G126" t="b">
         <v>1</v>
@@ -4561,7 +4564,7 @@
         <v>132</v>
       </c>
       <c r="C127" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D127" t="b">
         <v>1</v>
@@ -4573,7 +4576,7 @@
         <v>0</v>
       </c>
       <c r="G127" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H127">
         <v>2</v>
@@ -4596,10 +4599,10 @@
         <v>0</v>
       </c>
       <c r="F128" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G128" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H128">
         <v>2</v>
@@ -4616,16 +4619,16 @@
         <v>0</v>
       </c>
       <c r="D129" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E129" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F129" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G129" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H129">
         <v>2</v>
@@ -4645,13 +4648,13 @@
         <v>0</v>
       </c>
       <c r="E130" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F130" t="b">
         <v>1</v>
       </c>
       <c r="G130" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H130">
         <v>2</v>
@@ -4691,16 +4694,16 @@
         <v>137</v>
       </c>
       <c r="C132" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D132" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E132" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F132" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G132" t="b">
         <v>0</v>
@@ -4723,13 +4726,13 @@
         <v>0</v>
       </c>
       <c r="E133" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F133" t="b">
         <v>1</v>
       </c>
       <c r="G133" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H133">
         <v>2</v>
@@ -4743,19 +4746,19 @@
         <v>139</v>
       </c>
       <c r="C134" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D134" t="b">
         <v>0</v>
       </c>
       <c r="E134" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F134" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G134" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H134">
         <v>2</v>
@@ -4772,13 +4775,13 @@
         <v>0</v>
       </c>
       <c r="D135" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E135" t="b">
         <v>0</v>
       </c>
       <c r="F135" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G135" t="b">
         <v>1</v>
@@ -4795,7 +4798,7 @@
         <v>141</v>
       </c>
       <c r="C136" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D136" t="b">
         <v>1</v>
@@ -4807,7 +4810,7 @@
         <v>0</v>
       </c>
       <c r="G136" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H136">
         <v>2</v>
@@ -4821,7 +4824,7 @@
         <v>142</v>
       </c>
       <c r="C137" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D137" t="b">
         <v>1</v>
@@ -4833,7 +4836,7 @@
         <v>0</v>
       </c>
       <c r="G137" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H137">
         <v>2</v>
@@ -4847,7 +4850,7 @@
         <v>143</v>
       </c>
       <c r="C138" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D138" t="b">
         <v>1</v>
@@ -4859,7 +4862,7 @@
         <v>0</v>
       </c>
       <c r="G138" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H138">
         <v>2</v>
@@ -4873,7 +4876,7 @@
         <v>144</v>
       </c>
       <c r="C139" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D139" t="b">
         <v>1</v>
@@ -4885,7 +4888,7 @@
         <v>0</v>
       </c>
       <c r="G139" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H139">
         <v>2</v>
@@ -4899,19 +4902,19 @@
         <v>145</v>
       </c>
       <c r="C140" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D140" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E140" t="b">
         <v>0</v>
       </c>
       <c r="F140" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G140" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H140">
         <v>2</v>
@@ -4925,16 +4928,16 @@
         <v>146</v>
       </c>
       <c r="C141" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D141" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E141" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F141" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G141" t="b">
         <v>0</v>
@@ -4951,16 +4954,16 @@
         <v>147</v>
       </c>
       <c r="C142" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D142" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E142" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F142" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G142" t="b">
         <v>0</v>
@@ -4983,16 +4986,16 @@
         <v>0</v>
       </c>
       <c r="E143" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F143" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G143" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H143">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -5009,16 +5012,16 @@
         <v>0</v>
       </c>
       <c r="E144" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F144" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G144" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H144">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -5035,16 +5038,16 @@
         <v>0</v>
       </c>
       <c r="E145" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F145" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G145" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H145">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -5061,16 +5064,16 @@
         <v>0</v>
       </c>
       <c r="E146" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F146" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G146" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H146">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -5081,7 +5084,7 @@
         <v>152</v>
       </c>
       <c r="C147" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D147" t="b">
         <v>0</v>
@@ -5090,13 +5093,13 @@
         <v>0</v>
       </c>
       <c r="F147" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G147" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H147">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -5113,7 +5116,7 @@
         <v>0</v>
       </c>
       <c r="E148" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F148" t="b">
         <v>1</v>
@@ -5122,7 +5125,7 @@
         <v>0</v>
       </c>
       <c r="H148">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -5139,7 +5142,7 @@
         <v>0</v>
       </c>
       <c r="E149" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F149" t="b">
         <v>1</v>
@@ -5148,7 +5151,7 @@
         <v>0</v>
       </c>
       <c r="H149">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -5165,7 +5168,7 @@
         <v>0</v>
       </c>
       <c r="E150" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F150" t="b">
         <v>1</v>
@@ -5174,7 +5177,7 @@
         <v>0</v>
       </c>
       <c r="H150">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -5191,7 +5194,7 @@
         <v>0</v>
       </c>
       <c r="E151" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F151" t="b">
         <v>1</v>
@@ -5200,7 +5203,7 @@
         <v>0</v>
       </c>
       <c r="H151">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -5217,7 +5220,7 @@
         <v>0</v>
       </c>
       <c r="E152" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F152" t="b">
         <v>1</v>
@@ -5226,7 +5229,7 @@
         <v>0</v>
       </c>
       <c r="H152">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -5240,19 +5243,19 @@
         <v>0</v>
       </c>
       <c r="D153" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E153" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F153" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G153" t="b">
         <v>0</v>
       </c>
       <c r="H153">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -5263,22 +5266,22 @@
         <v>159</v>
       </c>
       <c r="C154" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D154" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E154" t="b">
         <v>0</v>
       </c>
       <c r="F154" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G154" t="b">
         <v>0</v>
       </c>
       <c r="H154">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -5289,22 +5292,22 @@
         <v>160</v>
       </c>
       <c r="C155" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D155" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E155" t="b">
         <v>0</v>
       </c>
       <c r="F155" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G155" t="b">
         <v>0</v>
       </c>
       <c r="H155">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -5315,22 +5318,22 @@
         <v>161</v>
       </c>
       <c r="C156" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D156" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E156" t="b">
         <v>0</v>
       </c>
       <c r="F156" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G156" t="b">
         <v>0</v>
       </c>
       <c r="H156">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -5341,7 +5344,7 @@
         <v>162</v>
       </c>
       <c r="C157" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D157" t="b">
         <v>1</v>
@@ -5356,7 +5359,7 @@
         <v>0</v>
       </c>
       <c r="H157">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -5367,7 +5370,7 @@
         <v>163</v>
       </c>
       <c r="C158" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D158" t="b">
         <v>1</v>
@@ -5382,7 +5385,7 @@
         <v>0</v>
       </c>
       <c r="H158">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -5393,22 +5396,22 @@
         <v>164</v>
       </c>
       <c r="C159" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D159" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E159" t="b">
         <v>0</v>
       </c>
       <c r="F159" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G159" t="b">
         <v>0</v>
       </c>
       <c r="H159">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -5419,22 +5422,22 @@
         <v>165</v>
       </c>
       <c r="C160" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D160" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E160" t="b">
         <v>0</v>
       </c>
       <c r="F160" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G160" t="b">
         <v>0</v>
       </c>
       <c r="H160">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -5445,22 +5448,22 @@
         <v>166</v>
       </c>
       <c r="C161" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D161" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E161" t="b">
         <v>0</v>
       </c>
       <c r="F161" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G161" t="b">
         <v>0</v>
       </c>
       <c r="H161">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -5506,10 +5509,10 @@
         <v>0</v>
       </c>
       <c r="F163" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G163" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H163">
         <v>1</v>
@@ -5532,10 +5535,10 @@
         <v>0</v>
       </c>
       <c r="F164" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G164" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H164">
         <v>1</v>
@@ -5552,13 +5555,13 @@
         <v>0</v>
       </c>
       <c r="D165" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E165" t="b">
         <v>0</v>
       </c>
       <c r="F165" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G165" t="b">
         <v>0</v>
@@ -5578,13 +5581,13 @@
         <v>0</v>
       </c>
       <c r="D166" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E166" t="b">
         <v>0</v>
       </c>
       <c r="F166" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G166" t="b">
         <v>0</v>
@@ -5610,10 +5613,10 @@
         <v>0</v>
       </c>
       <c r="F167" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G167" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H167">
         <v>1</v>
@@ -5636,10 +5639,10 @@
         <v>0</v>
       </c>
       <c r="F168" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G168" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H168">
         <v>1</v>
@@ -5662,10 +5665,10 @@
         <v>0</v>
       </c>
       <c r="F169" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G169" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H169">
         <v>1</v>
@@ -5688,10 +5691,10 @@
         <v>0</v>
       </c>
       <c r="F170" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G170" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H170">
         <v>1</v>
@@ -5708,13 +5711,13 @@
         <v>0</v>
       </c>
       <c r="D171" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E171" t="b">
         <v>0</v>
       </c>
       <c r="F171" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G171" t="b">
         <v>0</v>
@@ -5734,13 +5737,13 @@
         <v>0</v>
       </c>
       <c r="D172" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E172" t="b">
         <v>0</v>
       </c>
       <c r="F172" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G172" t="b">
         <v>0</v>
@@ -5766,10 +5769,10 @@
         <v>0</v>
       </c>
       <c r="F173" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G173" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H173">
         <v>1</v>
@@ -5786,13 +5789,13 @@
         <v>0</v>
       </c>
       <c r="D174" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E174" t="b">
         <v>0</v>
       </c>
       <c r="F174" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G174" t="b">
         <v>0</v>
@@ -5812,7 +5815,7 @@
         <v>0</v>
       </c>
       <c r="D175" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E175" t="b">
         <v>0</v>
@@ -5821,7 +5824,7 @@
         <v>0</v>
       </c>
       <c r="G175" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H175">
         <v>1</v>
@@ -5864,13 +5867,13 @@
         <v>0</v>
       </c>
       <c r="D177" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E177" t="b">
         <v>0</v>
       </c>
       <c r="F177" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G177" t="b">
         <v>0</v>
@@ -5890,13 +5893,13 @@
         <v>0</v>
       </c>
       <c r="D178" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E178" t="b">
         <v>0</v>
       </c>
       <c r="F178" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G178" t="b">
         <v>0</v>
@@ -6020,13 +6023,13 @@
         <v>0</v>
       </c>
       <c r="D183" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E183" t="b">
         <v>0</v>
       </c>
       <c r="F183" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G183" t="b">
         <v>0</v>
@@ -6052,10 +6055,10 @@
         <v>0</v>
       </c>
       <c r="F184" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G184" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H184">
         <v>1</v>
@@ -6104,10 +6107,10 @@
         <v>0</v>
       </c>
       <c r="F186" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G186" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H186">
         <v>1</v>
@@ -6130,10 +6133,10 @@
         <v>0</v>
       </c>
       <c r="F187" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G187" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H187">
         <v>1</v>
@@ -6156,10 +6159,10 @@
         <v>0</v>
       </c>
       <c r="F188" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G188" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H188">
         <v>1</v>
@@ -6176,7 +6179,7 @@
         <v>0</v>
       </c>
       <c r="D189" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E189" t="b">
         <v>0</v>
@@ -6185,7 +6188,7 @@
         <v>0</v>
       </c>
       <c r="G189" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H189">
         <v>1</v>
@@ -6205,10 +6208,10 @@
         <v>0</v>
       </c>
       <c r="E190" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F190" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G190" t="b">
         <v>0</v>
@@ -6286,10 +6289,10 @@
         <v>0</v>
       </c>
       <c r="F193" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G193" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H193">
         <v>1</v>
@@ -6338,10 +6341,10 @@
         <v>0</v>
       </c>
       <c r="F195" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G195" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H195">
         <v>1</v>
@@ -6364,10 +6367,10 @@
         <v>0</v>
       </c>
       <c r="F196" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G196" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H196">
         <v>1</v>
@@ -6390,10 +6393,10 @@
         <v>0</v>
       </c>
       <c r="F197" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G197" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H197">
         <v>1</v>
@@ -6416,10 +6419,10 @@
         <v>0</v>
       </c>
       <c r="F198" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G198" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H198">
         <v>1</v>
@@ -6442,10 +6445,10 @@
         <v>0</v>
       </c>
       <c r="F199" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G199" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H199">
         <v>1</v>
@@ -6468,10 +6471,10 @@
         <v>0</v>
       </c>
       <c r="F200" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G200" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H200">
         <v>1</v>
@@ -6517,13 +6520,13 @@
         <v>0</v>
       </c>
       <c r="E202" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F202" t="b">
         <v>0</v>
       </c>
       <c r="G202" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H202">
         <v>1</v>
@@ -6546,10 +6549,10 @@
         <v>0</v>
       </c>
       <c r="F203" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G203" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H203">
         <v>1</v>
@@ -6624,10 +6627,10 @@
         <v>0</v>
       </c>
       <c r="F206" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G206" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H206">
         <v>1</v>
@@ -6647,10 +6650,10 @@
         <v>0</v>
       </c>
       <c r="E207" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F207" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G207" t="b">
         <v>0</v>
@@ -6676,10 +6679,10 @@
         <v>0</v>
       </c>
       <c r="F208" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G208" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H208">
         <v>1</v>
@@ -6702,10 +6705,10 @@
         <v>0</v>
       </c>
       <c r="F209" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G209" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H209">
         <v>1</v>
@@ -6728,10 +6731,10 @@
         <v>0</v>
       </c>
       <c r="F210" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G210" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H210">
         <v>1</v>
@@ -6754,10 +6757,10 @@
         <v>0</v>
       </c>
       <c r="F211" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G211" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H211">
         <v>1</v>
@@ -6780,10 +6783,10 @@
         <v>0</v>
       </c>
       <c r="F212" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G212" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H212">
         <v>1</v>
@@ -6806,10 +6809,10 @@
         <v>0</v>
       </c>
       <c r="F213" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G213" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H213">
         <v>1</v>
@@ -6936,10 +6939,10 @@
         <v>0</v>
       </c>
       <c r="F218" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G218" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H218">
         <v>1</v>
@@ -6962,10 +6965,10 @@
         <v>0</v>
       </c>
       <c r="F219" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G219" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H219">
         <v>1</v>
@@ -6982,13 +6985,13 @@
         <v>0</v>
       </c>
       <c r="D220" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E220" t="b">
         <v>0</v>
       </c>
       <c r="F220" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G220" t="b">
         <v>0</v>
@@ -7034,13 +7037,13 @@
         <v>0</v>
       </c>
       <c r="D222" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E222" t="b">
         <v>0</v>
       </c>
       <c r="F222" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G222" t="b">
         <v>0</v>
@@ -7118,13 +7121,13 @@
         <v>0</v>
       </c>
       <c r="F225" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G225" t="b">
         <v>0</v>
       </c>
       <c r="H225">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -8944,6 +8947,32 @@
         <v>0</v>
       </c>
       <c r="H295">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="1:8">
+      <c r="A296" s="1">
+        <v>295</v>
+      </c>
+      <c r="B296" t="s">
+        <v>301</v>
+      </c>
+      <c r="C296" t="b">
+        <v>0</v>
+      </c>
+      <c r="D296" t="b">
+        <v>0</v>
+      </c>
+      <c r="E296" t="b">
+        <v>0</v>
+      </c>
+      <c r="F296" t="b">
+        <v>0</v>
+      </c>
+      <c r="G296" t="b">
+        <v>0</v>
+      </c>
+      <c r="H296">
         <v>0</v>
       </c>
     </row>
